--- a/docs/eDNA/example_output/Results_relab_long.xlsx
+++ b/docs/eDNA/example_output/Results_relab_long.xlsx
@@ -500,6 +500,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -537,6 +540,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -615,7 +621,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.02901290799401867</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -694,6 +700,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -772,7 +781,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.04035681751774634</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -811,6 +820,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -849,7 +861,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.005465701861432426</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1048,6 +1060,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -1086,7 +1101,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.9650095271089555</v>
+        <v>0.09575290902528316</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1125,6 +1140,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -1203,7 +1221,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.02388083866267304</v>
+        <v>0.01014076760454444</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1242,6 +1260,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -1279,6 +1300,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -1317,7 +1341,7 @@
         </is>
       </c>
       <c r="E25">
-        <v>0.9787251188653396</v>
+        <v>0.6262353689348756</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1397,7 +1421,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.06591070163004961</v>
+        <v>0.001598459978343446</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1437,7 +1461,7 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.7009041591320072</v>
+        <v>0.03330984341967309</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1477,7 +1501,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.05822550831792976</v>
+        <v>0.002165655454529829</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1557,7 +1581,7 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.8703044227455485</v>
+        <v>0.1302143311390316</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1637,7 +1661,7 @@
         </is>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0.001289080627696327</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1677,7 +1701,7 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.004273504273504274</v>
+        <v>6.875096681047077E-05</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1717,7 +1741,7 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.003551998561215773</v>
+        <v>0.002715663189013596</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1836,6 +1860,9 @@
           <t>Station18</t>
         </is>
       </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -1855,17 +1882,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Red White or Spotted hake</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1874,7 +1901,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.5489769264257728</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1895,17 +1922,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Urophycis sp</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Red White or Spotted hake</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1914,7 +1941,7 @@
         </is>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.02167374228700091</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1954,7 +1981,7 @@
         </is>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.08015624140397205</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2033,6 +2060,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -2070,6 +2100,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -2188,7 +2221,7 @@
         </is>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0.001283673506812639</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2227,6 +2260,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -2265,7 +2301,7 @@
         </is>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.003062478223395866</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2344,6 +2380,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -2422,7 +2461,7 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.03192550714998337</v>
+        <v>0.001760466523628762</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2462,7 +2501,7 @@
         </is>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.001925510260218958</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2502,7 +2541,7 @@
         </is>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.0120665309640388</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2542,7 +2581,7 @@
         </is>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.0458821587720746</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2581,6 +2620,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -2619,7 +2661,7 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.03499047289104452</v>
+        <v>0.003704314976802186</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2658,6 +2700,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -2696,7 +2741,7 @@
         </is>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0.0008618950688599145</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2736,7 +2781,7 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.3817291346231685</v>
+        <v>0.1729474977535713</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2775,6 +2820,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -2812,6 +2860,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -2850,7 +2901,7 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.02127488113466033</v>
+        <v>0.01452384881993728</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2890,7 +2941,7 @@
         </is>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0.0003117492802259266</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2930,7 +2981,7 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.9340892983699504</v>
+        <v>0.02416973831398654</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2970,7 +3021,7 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.2867992766726944</v>
+        <v>0.01454218701289175</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3010,7 +3061,7 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.9403881700554528</v>
+        <v>0.03731822266233886</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3050,7 +3101,7 @@
         </is>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0.006583411270653389</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3090,7 +3141,7 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.1296955772544515</v>
+        <v>0.02070381984559241</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3130,7 +3181,7 @@
         </is>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0.003172507381122664</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3210,7 +3261,7 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.9957264957264957</v>
+        <v>0.01709119583356256</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3250,7 +3301,7 @@
         </is>
       </c>
       <c r="E74">
-        <v>0.6021536801402815</v>
+        <v>0.491188498285379</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3290,7 +3341,7 @@
         </is>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0.02099723093286388</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3330,7 +3381,7 @@
         </is>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0.001485393629311768</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3369,6 +3420,9 @@
           <t>Station63</t>
         </is>
       </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -3388,17 +3442,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Red White or Spotted hake</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3407,7 +3461,7 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.4462342185459295</v>
+        <v>0.005464781500430948</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3428,17 +3482,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Urophycis sp</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Red White or Spotted hake</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3447,7 +3501,7 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.5549348230912476</v>
+        <v>0.01879664777832792</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3527,7 +3581,7 @@
         </is>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0.4732762888056007</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3566,6 +3620,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -3603,6 +3660,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -3641,7 +3701,7 @@
         </is>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0.02574075383636235</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3760,6 +3820,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -3877,6 +3940,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -3955,7 +4021,7 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.9680744928500167</v>
+        <v>0.0411710628668411</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4114,6 +4180,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -4191,6 +4260,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -4269,7 +4341,7 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.5943900267141585</v>
+        <v>0.2076939396082314</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4308,6 +4380,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -4345,6 +4420,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -4503,7 +4581,7 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.01229656419529837</v>
+        <v>0.0004808712255144615</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4543,7 +4621,7 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.001386321626617375</v>
+        <v>4.24298140159819E-05</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4783,7 +4861,7 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.3942943212985028</v>
+        <v>0.2480588360087688</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4902,6 +4980,9 @@
           <t>Station69</t>
         </is>
       </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>Ecosystem</t>
@@ -4921,17 +5002,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Red White or Spotted hake</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4940,7 +5021,7 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.00478885502829778</v>
+        <v>0.003380241849939891</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4961,17 +5042,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Urophycis sp</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Red White or Spotted hake</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4980,7 +5061,7 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.4450651769087523</v>
+        <v>0.000155575984725267</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
